--- a/ArchivosExcel/RutaGlobal.xlsx
+++ b/ArchivosExcel/RutaGlobal.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C:/Users/User Aux/Desktop/refaccionaria sauz/READMYSQL</t>
+          <t>C:/Users/User Aux/Desktop/refaccionaria sauz/READMYSQL/ArchivosExcel</t>
         </is>
       </c>
     </row>
